--- a/Levantamento AWS nova versao.xlsx
+++ b/Levantamento AWS nova versao.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\testecert\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="660" windowWidth="27795" windowHeight="12045" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="660" windowWidth="27800" windowHeight="12050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AWS" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="346">
   <si>
     <t>Aplicação</t>
   </si>
@@ -1058,6 +1063,9 @@
   </si>
   <si>
     <t>LAIS_CORE_BOT_NAME</t>
+  </si>
+  <si>
+    <t>teste</t>
   </si>
 </sst>
 </file>
@@ -1237,6 +1245,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1263,10 +1275,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1306,6 +1314,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1354,7 +1365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1389,7 +1400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1604,49 +1615,49 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="34.54296875" customWidth="1"/>
     <col min="10" max="10" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -1678,7 +1689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1702,7 +1713,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1726,7 +1737,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1752,7 +1763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1780,7 +1791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1808,7 +1819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1834,7 +1845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1858,7 +1869,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1886,7 +1897,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1914,7 +1925,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1940,7 +1951,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1966,7 +1977,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1990,7 +2001,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -2014,7 +2025,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -2038,7 +2049,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -2064,7 +2075,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -2090,7 +2101,7 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -2116,7 +2127,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
@@ -2140,7 +2151,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -2164,7 +2175,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -2188,7 +2199,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -2212,7 +2223,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
@@ -2236,7 +2247,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2262,7 +2273,7 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -2288,7 +2299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>76</v>
       </c>
@@ -2318,7 +2329,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -2348,7 +2359,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
@@ -2372,7 +2383,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -2396,7 +2407,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2438,31 +2449,31 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="93" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="21" t="s">
+    <row r="1" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="23" t="s">
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="25" t="s">
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>308</v>
       </c>
@@ -2470,7 +2481,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>310</v>
       </c>
@@ -2478,7 +2489,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>312</v>
       </c>
@@ -2486,7 +2497,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>314</v>
       </c>
@@ -2494,7 +2505,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>316</v>
       </c>
@@ -2502,7 +2513,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
         <v>319</v>
       </c>
@@ -2510,7 +2521,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
         <v>321</v>
       </c>
@@ -2518,7 +2529,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="11" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
         <v>323</v>
       </c>
@@ -2526,7 +2537,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
         <v>325</v>
       </c>
@@ -2534,7 +2545,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
         <v>327</v>
       </c>
@@ -2542,15 +2553,15 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="28" t="s">
+    <row r="14" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="19" t="s">
         <v>329</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1" t="s">
         <v>331</v>
       </c>
@@ -2558,15 +2569,15 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D16" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="20">
         <v>300000</v>
       </c>
     </row>
-    <row r="17" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D17" s="1" t="s">
         <v>334</v>
       </c>
@@ -2574,7 +2585,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D18" s="1" t="s">
         <v>336</v>
       </c>
@@ -2582,7 +2593,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D19" s="1" t="s">
         <v>338</v>
       </c>
@@ -2590,7 +2601,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D20" s="1" t="s">
         <v>340</v>
       </c>
@@ -2598,7 +2609,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D21" s="1" t="s">
         <v>341</v>
       </c>
@@ -2606,7 +2617,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="22" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D22" s="1" t="s">
         <v>343</v>
       </c>
@@ -2614,57 +2625,57 @@
         <v>8.9425943957348893E+19</v>
       </c>
     </row>
-    <row r="23" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D23" s="1" t="s">
         <v>344</v>
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
@@ -2693,22 +2704,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="80.42578125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="80.453125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="137.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="137.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>165</v>
       </c>
@@ -2725,7 +2736,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>170</v>
       </c>
@@ -2742,7 +2753,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>29</v>
       </c>
@@ -2759,7 +2770,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -2776,7 +2787,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>36</v>
       </c>
@@ -2793,7 +2804,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
@@ -2810,7 +2821,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>40</v>
       </c>
@@ -2827,7 +2838,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>190</v>
       </c>
@@ -2844,7 +2855,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>194</v>
       </c>
@@ -2861,7 +2872,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>198</v>
       </c>
@@ -2876,6 +2887,11 @@
       </c>
       <c r="E10" s="14" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2892,40 +2908,40 @@
       <selection activeCell="B1" sqref="B1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="133.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="133.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="22"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="25"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
@@ -2936,127 +2952,127 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>127</v>
       </c>
@@ -3084,41 +3100,41 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="122.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="166.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="122.26953125" customWidth="1"/>
+    <col min="2" max="2" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="166.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="22"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="25"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
@@ -3129,7 +3145,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>93</v>
       </c>
@@ -3140,7 +3156,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -3151,7 +3167,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
@@ -3162,7 +3178,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
@@ -3173,7 +3189,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
@@ -3184,7 +3200,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>129</v>
       </c>
@@ -3195,7 +3211,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>94</v>
       </c>
@@ -3206,7 +3222,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
@@ -3217,7 +3233,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
@@ -3228,7 +3244,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
@@ -3239,7 +3255,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>111</v>
       </c>
@@ -3250,7 +3266,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>112</v>
       </c>
@@ -3261,7 +3277,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
@@ -3272,7 +3288,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>95</v>
       </c>
@@ -3283,7 +3299,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>114</v>
       </c>
@@ -3294,7 +3310,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>115</v>
       </c>
@@ -3305,87 +3321,87 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>128</v>
       </c>
@@ -3416,17 +3432,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="122.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="122.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="81.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="62.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -3434,7 +3450,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>134</v>
       </c>
@@ -3445,47 +3461,47 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>143</v>
       </c>
@@ -3507,14 +3523,14 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="97.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="97.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -3522,7 +3538,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>158</v>
       </c>
@@ -3533,57 +3549,57 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
     </row>
   </sheetData>
@@ -3601,14 +3617,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="92.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -3616,7 +3632,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
@@ -3627,17 +3643,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>161</v>
       </c>
@@ -3658,14 +3674,14 @@
       <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>92</v>
       </c>
@@ -3677,7 +3693,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>203</v>
       </c>
@@ -3689,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>205</v>
       </c>
@@ -3701,7 +3717,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>208</v>
       </c>
@@ -3713,7 +3729,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>211</v>
       </c>
@@ -3725,7 +3741,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>214</v>
       </c>
@@ -3737,7 +3753,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>217</v>
       </c>
@@ -3749,7 +3765,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>220</v>
       </c>
@@ -3761,7 +3777,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>223</v>
       </c>
@@ -3773,7 +3789,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>226</v>
       </c>
@@ -3785,7 +3801,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>229</v>
       </c>
@@ -3797,7 +3813,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>232</v>
       </c>
@@ -3809,7 +3825,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>235</v>
       </c>
@@ -3821,7 +3837,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>237</v>
       </c>
@@ -3833,7 +3849,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>239</v>
       </c>
@@ -3845,7 +3861,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>242</v>
       </c>
@@ -3853,7 +3869,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>243</v>
       </c>
@@ -3861,7 +3877,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>244</v>
       </c>
@@ -3869,7 +3885,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>245</v>
       </c>
@@ -3877,7 +3893,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>246</v>
       </c>
@@ -3885,7 +3901,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>247</v>
       </c>
@@ -3893,7 +3909,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>248</v>
       </c>
@@ -3901,7 +3917,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>249</v>
       </c>
@@ -3909,7 +3925,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>250</v>
       </c>
@@ -3917,7 +3933,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>251</v>
       </c>
@@ -3925,7 +3941,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>252</v>
       </c>
@@ -3933,7 +3949,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>253</v>
       </c>
@@ -3941,7 +3957,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>254</v>
       </c>
@@ -3949,7 +3965,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>255</v>
       </c>
@@ -3971,14 +3987,14 @@
       <selection activeCell="C1" sqref="C1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="105.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>92</v>
       </c>
@@ -3990,7 +4006,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>256</v>
       </c>
@@ -4002,7 +4018,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>205</v>
       </c>
@@ -4014,7 +4030,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>261</v>
       </c>
@@ -4026,7 +4042,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>264</v>
       </c>
@@ -4038,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>265</v>
       </c>
@@ -4050,7 +4066,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>266</v>
       </c>
@@ -4062,7 +4078,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>267</v>
       </c>
@@ -4074,7 +4090,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
@@ -4084,7 +4100,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
@@ -4094,7 +4110,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
@@ -4104,7 +4120,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
@@ -4114,7 +4130,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
@@ -4124,7 +4140,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
@@ -4134,7 +4150,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
@@ -4144,7 +4160,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
@@ -4154,7 +4170,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
@@ -4164,7 +4180,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
@@ -4174,7 +4190,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
@@ -4184,7 +4200,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">

--- a/Levantamento AWS nova versao.xlsx
+++ b/Levantamento AWS nova versao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="660" windowWidth="27795" windowHeight="12045" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="660" windowWidth="27795" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="AWS" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="346">
   <si>
     <t>Aplicação</t>
   </si>
@@ -1058,6 +1058,9 @@
   </si>
   <si>
     <t>LAIS_CORE_BOT_NAME</t>
+  </si>
+  <si>
+    <t>erro</t>
   </si>
 </sst>
 </file>
@@ -1237,6 +1240,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1263,10 +1270,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1600,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,31 +1622,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2397,7 +2400,9 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2445,22 +2450,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
@@ -2543,7 +2548,7 @@
       </c>
     </row>
     <row r="14" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="19" t="s">
         <v>329</v>
       </c>
       <c r="E14" s="18" t="s">
@@ -2562,7 +2567,7 @@
       <c r="D16" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="20">
         <v>300000</v>
       </c>
     </row>
@@ -2695,7 +2700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2902,28 +2907,28 @@
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="22"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3095,28 +3100,28 @@
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="22"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">

--- a/Levantamento AWS nova versao.xlsx
+++ b/Levantamento AWS nova versao.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\testecert\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="660" windowWidth="27795" windowHeight="12045"/>
+    <workbookView xWindow="480" yWindow="660" windowWidth="27800" windowHeight="12050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AWS" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="349">
   <si>
     <t>Aplicação</t>
   </si>
@@ -1061,6 +1066,15 @@
   </si>
   <si>
     <t>erro</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>efvfv</t>
+  </si>
+  <si>
+    <t>evreve</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1271,6 +1285,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1309,6 +1326,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1357,7 +1377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1392,7 +1412,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1603,25 +1623,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="34.54296875" customWidth="1"/>
     <col min="10" max="10" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>81</v>
       </c>
@@ -1636,7 +1656,7 @@
       <c r="J1" s="22"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1649,7 +1669,7 @@
       <c r="J2" s="22"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -1681,7 +1701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1705,7 +1725,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1729,7 +1749,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1755,7 +1775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1783,7 +1803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1811,7 +1831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1837,7 +1857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1861,7 +1881,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1889,7 +1909,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1917,7 +1937,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1943,7 +1963,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1969,7 +1989,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,7 +2013,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -2017,7 +2037,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -2041,7 +2061,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -2067,7 +2087,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -2093,7 +2113,7 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -2119,7 +2139,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
@@ -2143,7 +2163,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -2167,7 +2187,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -2191,7 +2211,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -2215,7 +2235,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
@@ -2239,7 +2259,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2265,7 +2285,7 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -2291,7 +2311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>76</v>
       </c>
@@ -2321,7 +2341,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -2351,7 +2371,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
@@ -2375,7 +2395,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -2399,7 +2419,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>345</v>
       </c>
@@ -2443,31 +2463,31 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="93" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D1" s="23" t="s">
         <v>302</v>
       </c>
       <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D2" s="25" t="s">
         <v>318</v>
       </c>
       <c r="E2" s="26"/>
     </row>
-    <row r="3" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D3" s="27" t="s">
         <v>90</v>
       </c>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>308</v>
       </c>
@@ -2475,7 +2495,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>310</v>
       </c>
@@ -2483,7 +2503,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>312</v>
       </c>
@@ -2491,7 +2511,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>314</v>
       </c>
@@ -2499,7 +2519,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>316</v>
       </c>
@@ -2507,7 +2527,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
         <v>319</v>
       </c>
@@ -2515,7 +2535,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
         <v>321</v>
       </c>
@@ -2523,7 +2543,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="11" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
         <v>323</v>
       </c>
@@ -2531,7 +2551,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
         <v>325</v>
       </c>
@@ -2539,7 +2559,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
         <v>327</v>
       </c>
@@ -2547,7 +2567,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D14" s="19" t="s">
         <v>329</v>
       </c>
@@ -2555,7 +2575,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1" t="s">
         <v>331</v>
       </c>
@@ -2563,7 +2583,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D16" s="1" t="s">
         <v>333</v>
       </c>
@@ -2571,7 +2591,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="17" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D17" s="1" t="s">
         <v>334</v>
       </c>
@@ -2579,7 +2599,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D18" s="1" t="s">
         <v>336</v>
       </c>
@@ -2587,7 +2607,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D19" s="1" t="s">
         <v>338</v>
       </c>
@@ -2595,7 +2615,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D20" s="1" t="s">
         <v>340</v>
       </c>
@@ -2603,7 +2623,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D21" s="1" t="s">
         <v>341</v>
       </c>
@@ -2611,7 +2631,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="22" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D22" s="1" t="s">
         <v>343</v>
       </c>
@@ -2619,57 +2639,57 @@
         <v>8.9425943957348893E+19</v>
       </c>
     </row>
-    <row r="23" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D23" s="1" t="s">
         <v>344</v>
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
@@ -2698,22 +2718,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="80.42578125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="80.453125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="137.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="137.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>165</v>
       </c>
@@ -2730,7 +2750,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>170</v>
       </c>
@@ -2747,7 +2767,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>29</v>
       </c>
@@ -2764,7 +2784,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -2781,7 +2801,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>36</v>
       </c>
@@ -2798,7 +2818,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
@@ -2815,7 +2835,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>40</v>
       </c>
@@ -2832,7 +2852,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>190</v>
       </c>
@@ -2849,7 +2869,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>194</v>
       </c>
@@ -2866,7 +2886,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>198</v>
       </c>
@@ -2881,6 +2901,21 @@
       </c>
       <c r="E10" s="14" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="30" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2897,13 +2932,13 @@
       <selection activeCell="B1" sqref="B1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="133.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="133.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -2912,7 +2947,7 @@
       </c>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>307</v>
       </c>
@@ -2921,7 +2956,7 @@
       </c>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -2930,7 +2965,7 @@
       </c>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
@@ -2941,127 +2976,127 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>127</v>
       </c>
@@ -3089,14 +3124,14 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="122.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="166.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="122.26953125" customWidth="1"/>
+    <col min="2" max="2" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="166.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -3105,7 +3140,7 @@
       </c>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>307</v>
       </c>
@@ -3114,7 +3149,7 @@
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -3123,7 +3158,7 @@
       </c>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
@@ -3134,7 +3169,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>93</v>
       </c>
@@ -3145,7 +3180,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -3156,7 +3191,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
@@ -3167,7 +3202,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
@@ -3178,7 +3213,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
@@ -3189,7 +3224,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>129</v>
       </c>
@@ -3200,7 +3235,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>94</v>
       </c>
@@ -3211,7 +3246,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
@@ -3222,7 +3257,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
@@ -3233,7 +3268,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
@@ -3244,7 +3279,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>111</v>
       </c>
@@ -3255,7 +3290,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>112</v>
       </c>
@@ -3266,7 +3301,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
@@ -3277,7 +3312,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>95</v>
       </c>
@@ -3288,7 +3323,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>114</v>
       </c>
@@ -3299,7 +3334,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>115</v>
       </c>
@@ -3310,87 +3345,87 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>128</v>
       </c>
@@ -3421,17 +3456,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="122.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="122.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="81.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="62.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -3439,7 +3474,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>134</v>
       </c>
@@ -3450,47 +3485,47 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>143</v>
       </c>
@@ -3512,14 +3547,14 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="97.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="97.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -3527,7 +3562,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>158</v>
       </c>
@@ -3538,57 +3573,57 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
     </row>
   </sheetData>
@@ -3606,14 +3641,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="92.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -3621,7 +3656,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
@@ -3632,17 +3667,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>161</v>
       </c>
@@ -3663,14 +3698,14 @@
       <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>92</v>
       </c>
@@ -3682,7 +3717,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>203</v>
       </c>
@@ -3694,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>205</v>
       </c>
@@ -3706,7 +3741,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>208</v>
       </c>
@@ -3718,7 +3753,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>211</v>
       </c>
@@ -3730,7 +3765,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>214</v>
       </c>
@@ -3742,7 +3777,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>217</v>
       </c>
@@ -3754,7 +3789,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>220</v>
       </c>
@@ -3766,7 +3801,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>223</v>
       </c>
@@ -3778,7 +3813,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>226</v>
       </c>
@@ -3790,7 +3825,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>229</v>
       </c>
@@ -3802,7 +3837,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>232</v>
       </c>
@@ -3814,7 +3849,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>235</v>
       </c>
@@ -3826,7 +3861,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>237</v>
       </c>
@@ -3838,7 +3873,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>239</v>
       </c>
@@ -3850,7 +3885,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>242</v>
       </c>
@@ -3858,7 +3893,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>243</v>
       </c>
@@ -3866,7 +3901,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>244</v>
       </c>
@@ -3874,7 +3909,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>245</v>
       </c>
@@ -3882,7 +3917,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>246</v>
       </c>
@@ -3890,7 +3925,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>247</v>
       </c>
@@ -3898,7 +3933,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>248</v>
       </c>
@@ -3906,7 +3941,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>249</v>
       </c>
@@ -3914,7 +3949,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>250</v>
       </c>
@@ -3922,7 +3957,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>251</v>
       </c>
@@ -3930,7 +3965,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>252</v>
       </c>
@@ -3938,7 +3973,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>253</v>
       </c>
@@ -3946,7 +3981,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>254</v>
       </c>
@@ -3954,7 +3989,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>255</v>
       </c>
@@ -3976,14 +4011,14 @@
       <selection activeCell="C1" sqref="C1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="105.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>92</v>
       </c>
@@ -3995,7 +4030,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>256</v>
       </c>
@@ -4007,7 +4042,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>205</v>
       </c>
@@ -4019,7 +4054,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>261</v>
       </c>
@@ -4031,7 +4066,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>264</v>
       </c>
@@ -4043,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>265</v>
       </c>
@@ -4055,7 +4090,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>266</v>
       </c>
@@ -4067,7 +4102,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>267</v>
       </c>
@@ -4079,7 +4114,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
@@ -4089,7 +4124,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
@@ -4099,7 +4134,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
@@ -4109,7 +4144,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
@@ -4119,7 +4154,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
@@ -4129,7 +4164,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
@@ -4139,7 +4174,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
@@ -4149,7 +4184,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
@@ -4159,7 +4194,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
@@ -4169,7 +4204,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
@@ -4179,7 +4214,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
@@ -4189,7 +4224,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">

--- a/Levantamento AWS nova versao.xlsx
+++ b/Levantamento AWS nova versao.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\testecert\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="660" windowWidth="27800" windowHeight="12050" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="660" windowWidth="27795" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="AWS" sheetId="1" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="350">
   <si>
     <t>Aplicação</t>
   </si>
@@ -1065,9 +1060,6 @@
     <t>LAIS_CORE_BOT_NAME</t>
   </si>
   <si>
-    <t>erro</t>
-  </si>
-  <si>
     <t>teste</t>
   </si>
   <si>
@@ -1075,6 +1067,12 @@
   </si>
   <si>
     <t>evreve</t>
+  </si>
+  <si>
+    <t>erro 1</t>
+  </si>
+  <si>
+    <t>renato Lindo</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1258,6 +1256,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1285,9 +1286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1377,7 +1376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1412,7 +1411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1621,55 +1620,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
-    <col min="3" max="3" width="33.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="34.54296875" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" customWidth="1"/>
     <col min="10" max="10" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1725,7 +1724,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1749,7 +1748,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1775,7 +1774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1881,7 +1880,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1909,7 +1908,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1937,7 +1936,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1963,7 +1962,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -2013,7 +2012,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -2037,7 +2036,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -2061,7 +2060,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -2087,7 +2086,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -2113,7 +2112,7 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -2139,7 +2138,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
@@ -2163,7 +2162,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -2187,7 +2186,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -2211,7 +2210,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -2235,7 +2234,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
@@ -2259,7 +2258,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2285,7 +2284,7 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>76</v>
       </c>
@@ -2341,7 +2340,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
@@ -2395,7 +2394,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -2419,9 +2418,9 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2432,6 +2431,11 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2463,29 +2467,29 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="48.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="93" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
@@ -2503,7 +2507,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>312</v>
       </c>
@@ -2685,11 +2689,11 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
@@ -2720,17 +2724,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="80.453125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="80.42578125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="137.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="137.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2904,18 +2908,18 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
-        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2932,9 +2936,9 @@
       <selection activeCell="B1" sqref="B1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="133.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="133.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2942,28 +2946,28 @@
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -3124,39 +3128,39 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="122.26953125" customWidth="1"/>
-    <col min="2" max="2" width="41.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="166.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="122.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="166.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -3456,14 +3460,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="122.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="81.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="62.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="122.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="62.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -3547,10 +3551,10 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="97.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="97.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3641,10 +3645,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3698,11 +3702,11 @@
       <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3717,7 +3721,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>203</v>
       </c>
@@ -3729,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>205</v>
       </c>
@@ -3753,7 +3757,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>211</v>
       </c>
@@ -3765,7 +3769,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>214</v>
       </c>
@@ -3777,7 +3781,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>217</v>
       </c>
@@ -3789,7 +3793,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>220</v>
       </c>
@@ -3801,7 +3805,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>223</v>
       </c>
@@ -3813,7 +3817,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>226</v>
       </c>
@@ -3825,7 +3829,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>229</v>
       </c>
@@ -3849,7 +3853,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>235</v>
       </c>
@@ -3873,7 +3877,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>239</v>
       </c>
@@ -3885,7 +3889,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>242</v>
       </c>
@@ -3893,7 +3897,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>243</v>
       </c>
@@ -3909,7 +3913,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>245</v>
       </c>
@@ -3917,7 +3921,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>246</v>
       </c>
@@ -3925,7 +3929,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>247</v>
       </c>
@@ -3941,7 +3945,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>249</v>
       </c>
@@ -3949,7 +3953,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>250</v>
       </c>
@@ -3957,7 +3961,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>251</v>
       </c>
@@ -3973,7 +3977,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>253</v>
       </c>
@@ -3981,7 +3985,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>254</v>
       </c>
@@ -3989,7 +3993,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>255</v>
       </c>
@@ -4011,14 +4015,14 @@
       <selection activeCell="C1" sqref="C1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="105.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>92</v>
       </c>
@@ -4030,7 +4034,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>256</v>
       </c>
@@ -4042,7 +4046,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>205</v>
       </c>
@@ -4054,7 +4058,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>261</v>
       </c>
@@ -4066,7 +4070,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>264</v>
       </c>
@@ -4078,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>265</v>
       </c>
@@ -4090,7 +4094,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>266</v>
       </c>
@@ -4102,7 +4106,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>267</v>
       </c>
@@ -4114,7 +4118,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
@@ -4124,7 +4128,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
@@ -4134,7 +4138,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
@@ -4144,7 +4148,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
@@ -4154,7 +4158,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
@@ -4164,7 +4168,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
@@ -4174,7 +4178,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
@@ -4184,7 +4188,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
@@ -4194,7 +4198,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
@@ -4204,7 +4208,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
@@ -4214,7 +4218,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
@@ -4224,7 +4228,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">
